--- a/data/Electricity_summary_table_2_codebook.xlsx
+++ b/data/Electricity_summary_table_2_codebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Recon\sweden-electrification-committee\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D1DBF8-80A8-4CC8-9521-581C91AD8D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA488598-AADC-48D5-B9F3-506DB238212F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3529A5F1-D1B2-4B0B-9586-529EA4A91D7A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t>col</t>
   </si>
@@ -524,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA2FD53-7A9A-46FF-86DC-B042BBB28A57}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +729,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -743,7 +743,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -757,7 +757,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -771,7 +771,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
@@ -785,7 +785,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -799,7 +799,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
@@ -813,7 +813,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
@@ -827,7 +827,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
@@ -841,7 +841,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
@@ -855,7 +855,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
@@ -869,7 +869,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
         <v>19</v>
@@ -883,7 +883,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
         <v>19</v>
@@ -897,7 +897,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
         <v>19</v>
@@ -911,7 +911,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
         <v>19</v>
@@ -925,26 +925,12 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" t="s">
         <v>45</v>
       </c>
     </row>
